--- a/NewSavedView.xlsx
+++ b/NewSavedView.xlsx
@@ -14,47 +14,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>business_id</t>
   </si>
   <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>review_id</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>4JNXUYY8wbaaDmk3BPzlWw</t>
   </si>
   <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>2012-06-10</t>
   </si>
   <si>
@@ -76,12 +67,6 @@
     <t>2011-06-28</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>review_id</t>
-  </si>
-  <si>
     <t>wl8BO_I-is-JaMwMW5c_gQ</t>
   </si>
   <si>
@@ -101,12 +86,6 @@
   </si>
   <si>
     <t>gzBB-2e8fLOYFk997KnNvQ</t>
-  </si>
-  <si>
-    <t>stars</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t>I booked a table here for brunch and it did not disappoint, it was a great experience and more relaxed I feel that the pricy dinner menu would of been, with the same outdoor table overlooking the Bellagio fountains and the Paris hotel. Eggs Benedict for me was fab and some other good options on the menu. 
@@ -136,12 +115,6 @@
   <si>
     <t>So disappointed.  There were five hostesses standing around as we showed up ten minutes early for our lunch reservation,. We were seated about 12 minutes after our requested time.  Once seated we waited forever for a server.  The entire experience was just SLOW.  My meal was just average, the salad was overdressed and we had to ask for water and more drinks.
 I was glad I did not suggest this restaurant since everyone in our group was let down</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>fo4mpUqgXL2mJqALc9AvbA</t>
@@ -520,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,29 +535,29 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -592,31 +565,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -624,31 +597,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -656,31 +629,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -688,31 +661,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -720,31 +693,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -752,63 +725,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
         <v>37</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
